--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BLCMCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BLCMCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>BLCMCA</t>
-  </si>
-  <si>
-    <t>0.557528991004208</t>
-  </si>
-  <si>
-    <t>0.53385999822105</t>
-  </si>
-  <si>
-    <t>1.34158317931418</t>
-  </si>
-  <si>
-    <t>-0.982602430192667</t>
-  </si>
-  <si>
-    <t>0.0999047553249177</t>
-  </si>
-  <si>
-    <t>4.93713729550817</t>
-  </si>
-  <si>
-    <t>-0.23693629422479</t>
-  </si>
-  <si>
-    <t>-2.82512835647637</t>
-  </si>
-  <si>
-    <t>-2.50222582714823</t>
-  </si>
-  <si>
-    <t>-0.971385838325649</t>
-  </si>
-  <si>
-    <t>-0.702188000470024</t>
-  </si>
-  <si>
-    <t>-0.850939940075094</t>
-  </si>
-  <si>
-    <t>-1.37775079532239</t>
-  </si>
-  <si>
-    <t>0.585971687619807</t>
-  </si>
-  <si>
-    <t>-0.650349768253257</t>
-  </si>
-  <si>
-    <t>-1.41018839701434</t>
-  </si>
-  <si>
-    <t>-1.25360948580889</t>
-  </si>
-  <si>
-    <t>-0.465830778287067</t>
-  </si>
-  <si>
-    <t>-0.598365123737945</t>
-  </si>
-  <si>
-    <t>-0.790442967768188</t>
-  </si>
-  <si>
-    <t>-0.536780926283782</t>
-  </si>
-  <si>
-    <t>0.190283072136781</t>
-  </si>
-  <si>
-    <t>0.0167333828005116</t>
-  </si>
-  <si>
-    <t>-0.415475544394974</t>
-  </si>
-  <si>
-    <t>0.223691951871659</t>
-  </si>
-  <si>
-    <t>1.17780489632749</t>
-  </si>
-  <si>
-    <t>-0.149150069166886</t>
-  </si>
-  <si>
-    <t>-0.392079391427233</t>
-  </si>
-  <si>
-    <t>-0.961781218842152</t>
-  </si>
-  <si>
-    <t>0.298348958658911</t>
-  </si>
-  <si>
-    <t>-0.284918128364664</t>
-  </si>
-  <si>
-    <t>-0.609132574792694</t>
-  </si>
-  <si>
-    <t>-1.04747394082169</t>
-  </si>
-  <si>
-    <t>-0.0478107950381066</t>
-  </si>
-  <si>
-    <t>4.65502639805866</t>
-  </si>
-  <si>
-    <t>-2.30116682708042</t>
-  </si>
-  <si>
-    <t>0.572937599312001</t>
-  </si>
-  <si>
-    <t>0.60677637658981</t>
-  </si>
-  <si>
-    <t>-0.358807355740314</t>
-  </si>
-  <si>
-    <t>0.8498623136686</t>
-  </si>
-  <si>
-    <t>1.51281834471203</t>
-  </si>
-  <si>
-    <t>0.866957668303641</t>
-  </si>
-  <si>
-    <t>0.341205494319883</t>
-  </si>
-  <si>
-    <t>-0.475410455224473</t>
-  </si>
-  <si>
-    <t>1.98025055281525</t>
-  </si>
-  <si>
-    <t>0.889537340949644</t>
-  </si>
-  <si>
-    <t>2.29097410735786</t>
-  </si>
-  <si>
-    <t>-1.60752896041806</t>
-  </si>
-  <si>
-    <t>-0.199822936342681</t>
-  </si>
-  <si>
-    <t>1.5197714154009</t>
-  </si>
-  <si>
-    <t>-1.62181397420349</t>
-  </si>
-  <si>
-    <t>-1.00556975478361</t>
-  </si>
-  <si>
-    <t>-0.803807801838142</t>
-  </si>
-  <si>
-    <t>0.210414106991653</t>
-  </si>
-  <si>
-    <t>1.01407682708565</t>
-  </si>
-  <si>
-    <t>-0.116033434937512</t>
-  </si>
-  <si>
-    <t>0.0919458039018064</t>
-  </si>
-  <si>
-    <t>-0.159887887020863</t>
-  </si>
-  <si>
-    <t>0.509162110892717</t>
-  </si>
-  <si>
-    <t>0.806060872227174</t>
-  </si>
-  <si>
-    <t>0.241296070091952</t>
-  </si>
-  <si>
-    <t>-0.641237732057251</t>
-  </si>
-  <si>
-    <t>0.990408717835457</t>
-  </si>
-  <si>
-    <t>0.674027041488712</t>
-  </si>
-  <si>
-    <t>0.00731677544350084</t>
-  </si>
-  <si>
-    <t>-0.556106742999766</t>
-  </si>
-  <si>
-    <t>0.409806443904039</t>
-  </si>
-  <si>
-    <t>1.11570760700449</t>
-  </si>
-  <si>
-    <t>0.00523637388255516</t>
-  </si>
-  <si>
-    <t>-0.847703254371948</t>
-  </si>
-  <si>
-    <t>-0.523061698731144</t>
-  </si>
-  <si>
-    <t>1.31614764390207</t>
-  </si>
-  <si>
-    <t>0.325316212999541</t>
-  </si>
-  <si>
-    <t>-0.641549930395824</t>
-  </si>
-  <si>
-    <t>0.228361874160909</t>
-  </si>
-  <si>
-    <t>0.316228126651719</t>
-  </si>
-  <si>
-    <t>-0.0245791622858587</t>
-  </si>
-  <si>
-    <t>-3.37288957100058</t>
-  </si>
-  <si>
-    <t>-0.251350968244553</t>
-  </si>
-  <si>
-    <t>0.1002031960401</t>
-  </si>
-  <si>
-    <t>0.345193010064484</t>
-  </si>
-  <si>
-    <t>-1.21147056703521</t>
-  </si>
-  <si>
-    <t>-0.326466192494909</t>
-  </si>
-  <si>
-    <t>0.374862152280853</t>
+    <t>0.0454418233469056</t>
+  </si>
+  <si>
+    <t>11.5813619380112</t>
+  </si>
+  <si>
+    <t>11.3845381759218</t>
+  </si>
+  <si>
+    <t>4.30454816005255</t>
+  </si>
+  <si>
+    <t>10.3429417553189</t>
+  </si>
+  <si>
+    <t>-9.28123848139428</t>
+  </si>
+  <si>
+    <t>-1.95158057484394</t>
+  </si>
+  <si>
+    <t>13.5650849098719</t>
+  </si>
+  <si>
+    <t>7.47278812514858</t>
+  </si>
+  <si>
+    <t>-5.54054767862604</t>
+  </si>
+  <si>
+    <t>-0.257643277002614</t>
+  </si>
+  <si>
+    <t>5.38087586303438</t>
+  </si>
+  <si>
+    <t>-5.45083625890224</t>
+  </si>
+  <si>
+    <t>-2.37895404937947</t>
+  </si>
+  <si>
+    <t>-6.06580453758725</t>
+  </si>
+  <si>
+    <t>-8.98092780950983</t>
+  </si>
+  <si>
+    <t>-7.701707883449</t>
+  </si>
+  <si>
+    <t>-9.98697164911661</t>
+  </si>
+  <si>
+    <t>-17.024952129719</t>
+  </si>
+  <si>
+    <t>-0.476248130356197</t>
+  </si>
+  <si>
+    <t>10.607846732187</t>
+  </si>
+  <si>
+    <t>-7.18349626936615</t>
+  </si>
+  <si>
+    <t>-2.30718483242723</t>
+  </si>
+  <si>
+    <t>-7.86495787876597</t>
+  </si>
+  <si>
+    <t>20.9016503761001</t>
+  </si>
+  <si>
+    <t>2.10839635067393</t>
+  </si>
+  <si>
+    <t>-17.4425900335158</t>
+  </si>
+  <si>
+    <t>-3.37791006175538</t>
+  </si>
+  <si>
+    <t>4.50754752538485</t>
+  </si>
+  <si>
+    <t>-4.56530978670465</t>
+  </si>
+  <si>
+    <t>-1.33218193730347</t>
+  </si>
+  <si>
+    <t>-7.70286373254138</t>
+  </si>
+  <si>
+    <t>-0.369101230599817</t>
+  </si>
+  <si>
+    <t>8.62407612989385</t>
+  </si>
+  <si>
+    <t>12.6649340421043</t>
+  </si>
+  <si>
+    <t>-17.0093011250336</t>
+  </si>
+  <si>
+    <t>3.02320674222115</t>
+  </si>
+  <si>
+    <t>-4.590121183302</t>
+  </si>
+  <si>
+    <t>-3.19068842292656</t>
+  </si>
+  <si>
+    <t>-0.447255493856698</t>
+  </si>
+  <si>
+    <t>12.0589212273156</t>
+  </si>
+  <si>
+    <t>-8.88086512646082</t>
+  </si>
+  <si>
+    <t>-0.562268682810284</t>
+  </si>
+  <si>
+    <t>-0.0521692674626628</t>
+  </si>
+  <si>
+    <t>2.10609595297941</t>
+  </si>
+  <si>
+    <t>-1.74669334068596</t>
+  </si>
+  <si>
+    <t>3.5346493058834</t>
+  </si>
+  <si>
+    <t>-2.40406441917059</t>
+  </si>
+  <si>
+    <t>3.00912466436639</t>
+  </si>
+  <si>
+    <t>-0.71412607863612</t>
+  </si>
+  <si>
+    <t>-1.26600464579209</t>
+  </si>
+  <si>
+    <t>-3.86121724670302</t>
+  </si>
+  <si>
+    <t>-1.27944854788049</t>
+  </si>
+  <si>
+    <t>7.06663966513312</t>
+  </si>
+  <si>
+    <t>-4.31334259510835</t>
+  </si>
+  <si>
+    <t>1.68887826308347</t>
+  </si>
+  <si>
+    <t>-0.0554099954738234</t>
+  </si>
+  <si>
+    <t>-0.0647900867188014</t>
+  </si>
+  <si>
+    <t>0.625070824274076</t>
+  </si>
+  <si>
+    <t>4.31093251614973</t>
+  </si>
+  <si>
+    <t>-0.404401100660486</t>
+  </si>
+  <si>
+    <t>-3.31404433522882</t>
+  </si>
+  <si>
+    <t>5.86336160726493</t>
+  </si>
+  <si>
+    <t>-4.37322685940855</t>
+  </si>
+  <si>
+    <t>-6.52196021094699</t>
+  </si>
+  <si>
+    <t>-1.43324445476672</t>
+  </si>
+  <si>
+    <t>3.45716503765414</t>
+  </si>
+  <si>
+    <t>-1.43393482360534</t>
+  </si>
+  <si>
+    <t>-1.4412323678146</t>
+  </si>
+  <si>
+    <t>-1.85162301935363</t>
+  </si>
+  <si>
+    <t>-1.44863313123823</t>
+  </si>
+  <si>
+    <t>-0.826501273194324</t>
+  </si>
+  <si>
+    <t>-1.85485189886585</t>
+  </si>
+  <si>
+    <t>3.13024324233782</t>
+  </si>
+  <si>
+    <t>-0.874626863069693</t>
+  </si>
+  <si>
+    <t>3.35814920663602</t>
+  </si>
+  <si>
+    <t>0.635855453477099</t>
+  </si>
+  <si>
+    <t>12.0739093081495</t>
+  </si>
+  <si>
+    <t>-1.09078921424348</t>
+  </si>
+  <si>
+    <t>13.1052973454095</t>
+  </si>
+  <si>
+    <t>5.76646864011884</t>
+  </si>
+  <si>
+    <t>1.96374273392908</t>
+  </si>
+  <si>
+    <t>0.275486907096514</t>
+  </si>
+  <si>
+    <t>1.44110005801027</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
